--- a/Data/modif.xlsx
+++ b/Data/modif.xlsx
@@ -2084,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47:M49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
